--- a/test1.xlsx
+++ b/test1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xls2lua\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xls2lua-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="带列标题示例" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>大段位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,30 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*dan#=大段位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*step#=小段位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>elo#=最低ELO值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fight_count#=晋级场次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protect?=掉段保护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name$=显示名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,27 +132,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>one.lua=单列示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>two.lua=双列示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*name$=名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level#=等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array.lua=数组示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header.lua=带列标题示例</t>
+    <t>晋级场次=&gt;fight_count#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名=&gt;name$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带列标题示例=&gt;header.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉段保护=&gt;protect?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低ELO值=&gt;elo#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小段位=&gt;*step#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大段位=&gt;*dan#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单列示例=&gt;one.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双列示例=&gt;two.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字=&gt;*name$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级=&gt;level#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组示例=&gt;array.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{102, 1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{103, 2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{104, 3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{105, 4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{106, 5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{107, 6}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{108, 7}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{109, 8}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励道具=&gt;reward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +588,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -560,7 +600,7 @@
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,8 +619,11 @@
       <c r="F1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -600,7 +643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -616,8 +659,11 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -633,8 +679,11 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -653,8 +702,11 @@
       <c r="F5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -670,8 +722,11 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -687,8 +742,11 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -707,8 +765,11 @@
       <c r="F8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -724,8 +785,11 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -740,6 +804,9 @@
       </c>
       <c r="E10" t="s">
         <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -818,15 +885,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -996,68 +1063,73 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xls2lua-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xls2lua\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12348" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="带列标题示例" sheetId="1" r:id="rId1"/>
@@ -132,54 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晋级场次=&gt;fight_count#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示名=&gt;name$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带列标题示例=&gt;header.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉段保护=&gt;protect?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低ELO值=&gt;elo#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小段位=&gt;*step#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大段位=&gt;*dan#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单列示例=&gt;one.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双列示例=&gt;two.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字=&gt;*name$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级=&gt;level#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组示例=&gt;array.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>奖励道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,8 +168,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奖励道具=&gt;reward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>带列标题示例=table_with_header</t>
+  </si>
+  <si>
+    <t>单列示例=sigle_column</t>
+  </si>
+  <si>
+    <t>双列示例=dictionary</t>
+  </si>
+  <si>
+    <t>数组示例=array_data</t>
+  </si>
+  <si>
+    <t>大段位=*dan#</t>
+  </si>
+  <si>
+    <t>名字=*name$</t>
+  </si>
+  <si>
+    <t>小段位=*step#</t>
+  </si>
+  <si>
+    <t>等级=level#</t>
+  </si>
+  <si>
+    <t>最低ELO值=elo#</t>
+  </si>
+  <si>
+    <t>显示名=name$</t>
+  </si>
+  <si>
+    <t>晋级场次=fight_count#</t>
+  </si>
+  <si>
+    <t>奖励道具=reward</t>
+  </si>
+  <si>
+    <t>掉段保护=protect?</t>
   </si>
 </sst>
 </file>
@@ -590,17 +577,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,10 +607,10 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -643,7 +630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -660,10 +647,10 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -680,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -703,10 +690,10 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -723,10 +710,10 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -743,10 +730,10 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -766,10 +753,10 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -786,10 +773,10 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -806,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -824,42 +811,42 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>12345</v>
       </c>
@@ -878,12 +865,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -891,7 +878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -899,7 +886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -907,7 +894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -929,12 +916,12 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -954,7 +941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -974,7 +961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -994,7 +981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1014,7 +1001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1034,7 +1021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1065,71 +1052,71 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
